--- a/Data/Model 1.1 nul.xlsx
+++ b/Data/Model 1.1 nul.xlsx
@@ -9932,6 +9932,7 @@
         <c:axId val="895295536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -19421,6 +19422,8 @@
         <c:axId val="895301776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -38399,6 +38402,7 @@
         <c:axId val="444539472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
